--- a/xisobot.xlsx
+++ b/xisobot.xlsx
@@ -481,15 +481,15 @@
         <v>160000</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>640000</v>
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/xisobot.xlsx
+++ b/xisobot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,14 +481,41 @@
         <v>160000</v>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A1112</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>160000</v>
       </c>
     </row>
